--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\prj\mydev\Elin\ElinMod\Elin_ExGunMods\data\resource\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\prj\mydev\Mod\ElinMod\Elin_ExGunMods\data\resource\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,7 +52,10 @@
           <t xml:space="preserve">
 modRangedのelementは
 socketsに100掛けで入るため、
-int表現最大値の21億以下にする必要がある</t>
+int表現最大値の21億以下にする必要がある
+2025/08/27追記：
+バージョンアップで1000掛けになった…
+仕方ないので一桁下げる...</t>
         </r>
       </text>
     </comment>
@@ -135,12 +138,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>伊月遊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+2025/08/27追加
+古いデータとのコンバート用
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>伊月遊:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+2025/08/27追加
+古いデータとのコンバート用す</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="348">
   <si>
     <t>id</t>
   </si>
@@ -785,14 +843,6 @@
   </si>
   <si>
     <t>火炎</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_barrel_plus1</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_barrel_plus2</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
@@ -857,26 +907,6 @@
     <t>短銃身-5</t>
     <rPh sb="0" eb="3">
       <t>タンジュウシン</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>長銃身+1</t>
-    <rPh sb="0" eb="1">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジュウシン</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>長銃身+2</t>
-    <rPh sb="0" eb="1">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジュウシン</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
@@ -926,17 +956,10 @@
     <t>Short Barrel-5</t>
   </si>
   <si>
-    <t>Long Barrel+1</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>Long Barrel+4</t>
   </si>
   <si>
     <t>Long Barrel+5</t>
-  </si>
-  <si>
-    <t>Long Barrel+2</t>
   </si>
   <si>
     <t>Long Barrel+3</t>
@@ -1037,38 +1060,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を伸ばし、適正距離が+1されている</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウシン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テキセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>それは銃身を伸ばし、適正距離が+2されている</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウシン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テキセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>それは銃身を伸ばし、適正距離が+3されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
@@ -1117,12 +1108,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>It has an extended barrel and +1 proper distance</t>
-  </si>
-  <si>
-    <t>It has an extended barrel and +2 proper distance</t>
-  </si>
-  <si>
     <t>It has an extended barrel and +3 proper distance</t>
   </si>
   <si>
@@ -1194,7 +1179,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>桶+1</t>
+      <t>桶+3</t>
     </r>
   </si>
   <si>
@@ -1209,7 +1194,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>桶+2</t>
+      <t>桶+4</t>
     </r>
   </si>
   <si>
@@ -1224,11 +1209,166 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>桶+3</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>桶+5</t>
+    </r>
+  </si>
+  <si>
+    <t>短桶-1</t>
+  </si>
+  <si>
+    <t>短桶-2</t>
+  </si>
+  <si>
+    <t>短桶-3</t>
+  </si>
+  <si>
+    <t>短桶-4</t>
+  </si>
+  <si>
+    <t>短桶-5</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>闪电</t>
+  </si>
+  <si>
+    <t>黑暗</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>阴</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <r>
+      <t>神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+  </si>
+  <si>
+    <t>神圣</t>
+  </si>
+  <si>
+    <t>以太</t>
+  </si>
+  <si>
+    <t>切割</t>
+  </si>
+  <si>
+    <r>
+      <t>冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+  </si>
+  <si>
+    <t>長管+3</t>
+  </si>
+  <si>
+    <t>長管+4</t>
+  </si>
+  <si>
+    <t>長管+5</t>
+  </si>
+  <si>
+    <t>短管-1</t>
+  </si>
+  <si>
+    <t>短管-2</t>
+  </si>
+  <si>
+    <t>短管-3</t>
+  </si>
+  <si>
+    <t>短管-4</t>
+  </si>
+  <si>
+    <t>短管-5</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
+    <t>閃電</t>
+  </si>
+  <si>
+    <t>心靈</t>
+  </si>
+  <si>
+    <t>毒藥</t>
+  </si>
+  <si>
+    <t>幽冥</t>
+  </si>
+  <si>
+    <t>聲音</t>
+  </si>
+  <si>
+    <t>神經</t>
+  </si>
+  <si>
+    <t>乙太</t>
+  </si>
+  <si>
+    <t>衝擊</t>
+  </si>
+  <si>
+    <t>加長槍管，+3 適當距離</t>
+  </si>
+  <si>
+    <t>加長槍管，+4 適當距離</t>
+  </si>
+  <si>
+    <t>砲管被截斷，正確距離為 -2</t>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>长</t>
     </r>
     <r>
@@ -1239,12 +1379,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>桶+4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>长</t>
+      <t>，距离+3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
     </r>
     <r>
       <rPr>
@@ -1254,48 +1394,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>桶+5</t>
-    </r>
-  </si>
-  <si>
-    <t>短桶-1</t>
-  </si>
-  <si>
-    <t>短桶-2</t>
-  </si>
-  <si>
-    <t>短桶-3</t>
-  </si>
-  <si>
-    <t>短桶-4</t>
-  </si>
-  <si>
-    <t>短桶-5</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>冷</t>
-  </si>
-  <si>
-    <t>闪电</t>
-  </si>
-  <si>
-    <t>黑暗</t>
-  </si>
-  <si>
-    <t>精神</t>
-  </si>
-  <si>
-    <t>阴</t>
-  </si>
-  <si>
-    <t>声音</t>
-  </si>
-  <si>
-    <r>
-      <t>神</t>
+      <t>管截短，适当距离</t>
     </r>
     <r>
       <rPr>
@@ -1305,21 +1404,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>经</t>
-    </r>
-  </si>
-  <si>
-    <t>神圣</t>
-  </si>
-  <si>
-    <t>以太</t>
-  </si>
-  <si>
-    <t>切割</t>
-  </si>
-  <si>
-    <r>
-      <t>冲</t>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管截短，适当距离</t>
     </r>
     <r>
       <rPr>
@@ -1329,84 +1439,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>击</t>
-    </r>
-  </si>
-  <si>
-    <t>長管+1</t>
-  </si>
-  <si>
-    <t>長管+2</t>
-  </si>
-  <si>
-    <t>長管+3</t>
-  </si>
-  <si>
-    <t>長管+4</t>
-  </si>
-  <si>
-    <t>長管+5</t>
-  </si>
-  <si>
-    <t>短管-1</t>
-  </si>
-  <si>
-    <t>短管-2</t>
-  </si>
-  <si>
-    <t>短管-3</t>
-  </si>
-  <si>
-    <t>短管-4</t>
-  </si>
-  <si>
-    <t>短管-5</t>
-  </si>
-  <si>
-    <t>寒冷</t>
-  </si>
-  <si>
-    <t>閃電</t>
-  </si>
-  <si>
-    <t>心靈</t>
-  </si>
-  <si>
-    <t>毒藥</t>
-  </si>
-  <si>
-    <t>幽冥</t>
-  </si>
-  <si>
-    <t>聲音</t>
-  </si>
-  <si>
-    <t>神經</t>
-  </si>
-  <si>
-    <t>乙太</t>
-  </si>
-  <si>
-    <t>衝擊</t>
-  </si>
-  <si>
-    <t>加長槍管，+1 適當距離</t>
-  </si>
-  <si>
-    <t>加長槍管，+2 適當距離</t>
-  </si>
-  <si>
-    <t>加長槍管，+3 適當距離</t>
-  </si>
-  <si>
-    <t>加長槍管，+4 適當距離</t>
-  </si>
-  <si>
-    <t>砲管被截斷，正確距離為 -2</t>
-  </si>
-  <si>
-    <r>
-      <t>枪</t>
+      <t>为</t>
     </r>
     <r>
       <rPr>
@@ -1416,177 +1449,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>管加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>，距离+3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>枪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>管截短，适当距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>枪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>管截短，适当距离</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>-2</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>枪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>管加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>，距离+2</t>
-    </r>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>枪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>管加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NSimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>，距离+1</t>
-    </r>
-    <phoneticPr fontId="19"/>
   </si>
   <si>
     <r>
@@ -1792,7 +1656,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>배럴과</t>
+      <t>포신과</t>
     </r>
     <r>
       <rPr>
@@ -1802,7 +1666,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> +1</t>
+      <t xml:space="preserve"> +3</t>
     </r>
     <r>
       <rPr>
@@ -1917,7 +1781,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> +2</t>
+      <t xml:space="preserve"> +4</t>
     </r>
     <r>
       <rPr>
@@ -2032,7 +1896,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> +3</t>
+      <t xml:space="preserve"> +5</t>
     </r>
     <r>
       <rPr>
@@ -2117,7 +1981,7 @@
   </si>
   <si>
     <r>
-      <t>연장된</t>
+      <t>잘린</t>
     </r>
     <r>
       <rPr>
@@ -2137,7 +2001,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>포신과</t>
+      <t>배럴이</t>
     </r>
     <r>
       <rPr>
@@ -2147,7 +2011,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> +4</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2157,7 +2021,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>의</t>
+      <t>있고</t>
     </r>
     <r>
       <rPr>
@@ -2177,7 +2041,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>적정</t>
+      <t>적절한</t>
     </r>
     <r>
       <rPr>
@@ -2197,7 +2061,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>거리를</t>
+      <t>거리는</t>
     </r>
     <r>
       <rPr>
@@ -2207,6 +2071,41 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve"> -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2217,7 +2116,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>가집니다</t>
+      <t>배럴이</t>
     </r>
     <r>
       <rPr>
@@ -2227,12 +2126,92 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>연장된</t>
+      <t>잘린</t>
     </r>
     <r>
       <rPr>
@@ -2252,7 +2231,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>포신과</t>
+      <t>배럴이</t>
     </r>
     <r>
       <rPr>
@@ -2262,7 +2241,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> +5</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2272,7 +2251,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>의</t>
+      <t>있고</t>
     </r>
     <r>
       <rPr>
@@ -2292,7 +2271,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>적정</t>
+      <t>적절한</t>
     </r>
     <r>
       <rPr>
@@ -2312,7 +2291,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>거리를</t>
+      <t>거리는</t>
     </r>
     <r>
       <rPr>
@@ -2322,6 +2301,41 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve"> -3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2332,7 +2346,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>가집니다</t>
+      <t>배럴이</t>
     </r>
     <r>
       <rPr>
@@ -2342,6 +2356,86 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -2437,7 +2531,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> -1</t>
+      <t xml:space="preserve"> -5</t>
     </r>
     <r>
       <rPr>
@@ -2461,472 +2555,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>잘린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배럴이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적절한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> -2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>잘린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배럴이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적절한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> -3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>잘린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배럴이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적절한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> -4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>잘린</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배럴이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적절한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거리는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> -5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>긴 총신 +1</t>
-  </si>
-  <si>
-    <t>긴 총신 +2</t>
-  </si>
-  <si>
     <t>긴 총신+3</t>
   </si>
   <si>
@@ -2994,6 +2622,14 @@
   </si>
   <si>
     <t>충격</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_IDStartOld</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_IDEndOld</t>
+    <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
@@ -4555,10 +4191,10 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4767,22 +4403,22 @@
         <v>62</v>
       </c>
       <c r="BJ1" s="22" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="BK1" s="23" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="BL1" s="22" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="BM1" s="23" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="BN1" s="22" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="BO1" s="23" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:67" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -4958,16 +4594,16 @@
         <v>186</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="BG2" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.4">
@@ -5038,7 +4674,7 @@
     </row>
     <row r="4" spans="1:67" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
-        <v>4000000</v>
+        <v>400000</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>196</v>
@@ -5107,7 +4743,7 @@
     </row>
     <row r="5" spans="1:67" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
-        <v>4199999</v>
+        <v>419999</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>195</v>
@@ -5174,256 +4810,156 @@
       <c r="BJ5" s="19"/>
       <c r="BK5" s="19"/>
     </row>
-    <row r="6" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
-        <v>4000001</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>300</v>
-      </c>
-      <c r="Q6">
-        <v>60</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC6"/>
-      <c r="AD6">
-        <v>50</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>10</v>
-      </c>
-      <c r="AG6">
-        <v>5</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6"/>
-      <c r="AM6"/>
-      <c r="AN6"/>
-      <c r="AO6"/>
-      <c r="AP6"/>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="AU6" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="BJ6" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="BK6" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="BL6" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="BM6" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="BN6" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="BO6" s="24" t="s">
-        <v>333</v>
-      </c>
+    <row r="6" spans="1:67" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
     </row>
-    <row r="7" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="16">
-        <v>4000002</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>100</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>300</v>
-      </c>
-      <c r="Q7">
-        <v>60</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7" t="s">
-        <v>63</v>
-      </c>
-      <c r="X7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC7"/>
-      <c r="AD7">
-        <v>50</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>10</v>
-      </c>
-      <c r="AG7">
-        <v>5</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="BJ7" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK7" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="BL7" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="BM7" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="BN7" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="BO7" s="24" t="s">
-        <v>334</v>
-      </c>
+    <row r="7" spans="1:67" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>4199999</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="19"/>
     </row>
     <row r="8" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
-        <v>4000003</v>
+        <v>400003</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -5507,42 +5043,42 @@
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="BJ8" s="25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="BK8" s="25" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="BL8" s="12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="BM8" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="BN8" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="BO8" s="24" t="s">
         <v>315</v>
-      </c>
-      <c r="BN8" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="BO8" s="24" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
-        <v>4000004</v>
+        <v>400004</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -5626,42 +5162,42 @@
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="BJ9" s="25" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="BK9" s="25" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="BL9" s="12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="BM9" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="BN9" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="BO9" s="24" t="s">
         <v>316</v>
-      </c>
-      <c r="BN9" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="BO9" s="24" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
-        <v>4000005</v>
+        <v>400005</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -5745,42 +5281,42 @@
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="BJ10" s="25" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="BK10" s="25" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="BL10" s="12" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="BM10" s="12" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="BN10" s="24" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="BO10" s="24" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
-        <v>4000011</v>
+        <v>400011</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -5864,44 +5400,44 @@
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
       <c r="BJ11" s="12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="BK11" s="25" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="BL11" s="12" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="BM11" s="12" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="BN11" s="24" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="BO11" s="24" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
-        <v>4000012</v>
+        <v>400012</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -5985,44 +5521,44 @@
       <c r="AR12"/>
       <c r="AS12"/>
       <c r="AT12" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="10"/>
       <c r="BJ12" s="12" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="BK12" s="25" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="BL12" s="12" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="BM12" s="12" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="BN12" s="24" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="BO12" s="24" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
-        <v>4000013</v>
+        <v>400013</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -6106,44 +5642,44 @@
       <c r="AR13"/>
       <c r="AS13"/>
       <c r="AT13" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="10"/>
       <c r="BJ13" s="12" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="BK13" s="25" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="BL13" s="12" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="BN13" s="24" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="BO13" s="24" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
-        <v>4000014</v>
+        <v>400014</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -6227,44 +5763,44 @@
       <c r="AR14"/>
       <c r="AS14"/>
       <c r="AT14" s="10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
       <c r="BJ14" s="12" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="BL14" s="12" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="BN14" s="24" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="BO14" s="24" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
-        <v>4000015</v>
+        <v>400015</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -6348,38 +5884,38 @@
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
       <c r="BJ15" s="12" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="BK15" s="12" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="BL15" s="12" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="BM15" s="12" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="BN15" s="24" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="BO15" s="24" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:67" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
-        <v>4001000</v>
+        <v>401000</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>212</v>
@@ -6478,18 +6014,18 @@
         <v>138</v>
       </c>
       <c r="BJ16" s="12" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="BL16" s="12" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="BN16" s="24" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
-        <v>4001001</v>
+        <v>401001</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>197</v>
@@ -6591,18 +6127,18 @@
         <v>139</v>
       </c>
       <c r="BJ17" s="12" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="BL17" s="12" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="BN17" s="24" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
-        <v>4001002</v>
+        <v>401002</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>198</v>
@@ -6704,18 +6240,18 @@
         <v>140</v>
       </c>
       <c r="BJ18" s="25" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="BL18" s="12" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="BN18" s="24" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
-        <v>4001003</v>
+        <v>401003</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>199</v>
@@ -6817,18 +6353,18 @@
         <v>141</v>
       </c>
       <c r="BJ19" s="12" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="BL19" s="12" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="BN19" s="24" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
-        <v>4001004</v>
+        <v>401004</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>200</v>
@@ -6930,18 +6466,18 @@
         <v>142</v>
       </c>
       <c r="BJ20" s="12" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="BL20" s="12" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="BN20" s="24" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
-        <v>4001005</v>
+        <v>401005</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>201</v>
@@ -7046,15 +6582,15 @@
         <v>83</v>
       </c>
       <c r="BL21" s="12" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="BN21" s="24" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
-        <v>4001006</v>
+        <v>401006</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>202</v>
@@ -7156,18 +6692,18 @@
         <v>144</v>
       </c>
       <c r="BJ22" s="12" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="BL22" s="12" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="BN22" s="24" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
-        <v>4001007</v>
+        <v>401007</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>203</v>
@@ -7269,18 +6805,18 @@
         <v>145</v>
       </c>
       <c r="BJ23" s="12" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="BL23" s="12" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="BN23" s="24" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
-        <v>4001008</v>
+        <v>401008</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>204</v>
@@ -7382,18 +6918,18 @@
         <v>146</v>
       </c>
       <c r="BJ24" s="12" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="BL24" s="12" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="BN24" s="24" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
-        <v>4001009</v>
+        <v>401009</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>205</v>
@@ -7495,18 +7031,18 @@
         <v>147</v>
       </c>
       <c r="BJ25" s="12" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="BL25" s="12" t="s">
         <v>99</v>
       </c>
       <c r="BN25" s="24" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
-        <v>4001010</v>
+        <v>401010</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>206</v>
@@ -7614,12 +7150,12 @@
         <v>103</v>
       </c>
       <c r="BN26" s="24" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
-        <v>4001011</v>
+        <v>401011</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>207</v>
@@ -7727,12 +7263,12 @@
         <v>106</v>
       </c>
       <c r="BN27" s="24" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
-        <v>4001012</v>
+        <v>401012</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>208</v>
@@ -7834,18 +7370,18 @@
         <v>150</v>
       </c>
       <c r="BJ28" s="12" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="BL28" s="12" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="BN28" s="24" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
-        <v>4001013</v>
+        <v>401013</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>209</v>
@@ -7953,12 +7489,12 @@
         <v>112</v>
       </c>
       <c r="BN29" s="24" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
-        <v>4001014</v>
+        <v>401014</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>210</v>
@@ -8060,18 +7596,18 @@
         <v>152</v>
       </c>
       <c r="BJ30" s="12" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="BL30" s="12" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="BN30" s="24" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
-        <v>4001015</v>
+        <v>401015</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>211</v>
@@ -8173,13 +7709,13 @@
         <v>153</v>
       </c>
       <c r="BJ31" s="12" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="BL31" s="12" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="BN31" s="24" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.4">
